--- a/Table/Table_xls/f福利奖励/节日活跃度奖励表.xlsx
+++ b/Table/Table_xls/f福利奖励/节日活跃度奖励表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13725"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 节点：（唯一）</t>
         </r>
       </text>
@@ -40,11 +39,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 需求活跃度</t>
         </r>
       </text>
@@ -54,11 +52,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 需求活跃度</t>
         </r>
       </text>
@@ -68,11 +65,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 需求活跃度</t>
         </r>
       </text>
@@ -82,11 +78,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 需求活跃度</t>
         </r>
       </text>
@@ -96,11 +91,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 需求活跃度</t>
         </r>
       </text>
@@ -110,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -125,6 +119,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>道具</t>
     </r>
     <r>
@@ -132,7 +132,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>ID1</t>
@@ -149,6 +148,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>道具</t>
     </r>
     <r>
@@ -156,7 +161,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>ID2</t>
@@ -173,6 +177,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>道具</t>
     </r>
     <r>
@@ -180,7 +190,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>ID3</t>
@@ -197,6 +206,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>道具</t>
     </r>
     <r>
@@ -204,7 +219,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>ID4</t>
@@ -221,6 +235,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>道具</t>
     </r>
     <r>
@@ -228,7 +248,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>ID5</t>
@@ -247,11 +266,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -261,7 +280,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -274,10 +292,39 @@
       <sz val="10"/>
       <color indexed="30"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -285,62 +332,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -354,13 +415,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -369,64 +440,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -438,25 +460,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,157 +634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,23 +657,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,19 +666,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,7 +691,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,17 +741,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,133 +771,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -947,6 +969,12 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1202,12 +1230,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:W12"/>
   <sheetViews>
@@ -1215,7 +1242,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="16"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -1402,7 +1429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1410,7 +1437,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1419,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1427,7 +1454,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
   <pageSetup paperSize="9" orientation="portrait"/>
